--- a/DATALOGGER_CA_V1/DATALOGGER_CA_V1 BOM.xlsx
+++ b/DATALOGGER_CA_V1/DATALOGGER_CA_V1 BOM.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mecatronica\Documents\eagle\projects\DATALOGGER_CA_V1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alan\Documents\eagle\projects\DATALOGGER_CA_V1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71B34F2-5C56-4272-BE87-C0517CFF3E8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="2592" yWindow="-204" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="82">
   <si>
     <t>Item #</t>
   </si>
@@ -143,9 +144,6 @@
     <t>Generic</t>
   </si>
   <si>
-    <t>Stackpole Electronics Inc</t>
-  </si>
-  <si>
     <t>Phoenix Contact</t>
   </si>
   <si>
@@ -161,12 +159,6 @@
     <t xml:space="preserve">JP1                    </t>
   </si>
   <si>
-    <t xml:space="preserve">J1, J2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1, R4, R7, R10, R13, R16, R19, R22, R25, R28, R31, R34, R37, R40, R43, R46 </t>
-  </si>
-  <si>
     <t>C1, C4, C7, C10, C13, C16, C19, C22, C25, C28, C31, C34, C37, C40, C43, C46</t>
   </si>
   <si>
@@ -212,24 +204,6 @@
     <t>https://www.digikey.com.mx/en/products/detail/phoenix-contact/1985027/3597013</t>
   </si>
   <si>
-    <t>HMC0805JT200M</t>
-  </si>
-  <si>
-    <t>RES 200M OHM 5% 1/8W 0805</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com.mx/en/products/detail/stackpole-electronics-inc/HMC0805JT200M/2690521</t>
-  </si>
-  <si>
-    <t>C0805C203K3GAC7800</t>
-  </si>
-  <si>
-    <t>CAP CER 0.02UF 25V C0G/NP0 0805</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com.mx/en/products/detail/kemet/C0805C203K3GAC7800/12700980</t>
-  </si>
-  <si>
     <t>C0805C393J5RACTU</t>
   </si>
   <si>
@@ -276,12 +250,102 @@
   </si>
   <si>
     <t>https://www.digikey.com.mx/en/products/detail/texas-instruments/TLV2771CDBVR/276989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J1, J2, J3, J4 </t>
+  </si>
+  <si>
+    <t>R1, R4, R7, R10, R13, R16, R19, R22, R25, R28, R31, R34, R37, R40, R43, R46</t>
+  </si>
+  <si>
+    <t>Vishay Dale</t>
+  </si>
+  <si>
+    <t>CRCW080510M0DHEAP</t>
+  </si>
+  <si>
+    <t>10 ±0.5% 0.125W, 1/8W Chip Resistor 0805 (2012 Metric) Automotive AEC-Q200 Thick Film</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/vishay-dale/CRCW080510M0DHEAP/3593880</t>
+  </si>
+  <si>
+    <t>Würth Elektronik</t>
+  </si>
+  <si>
+    <t>CAP CER 0.15UF 10V X7R 0805</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/885012207017/5453504</t>
+  </si>
+  <si>
+    <t>C50, C52, C54, C56, C58, C60, C62, C64, C66, C68, C70, C72, C74, C76, C78, C80</t>
+  </si>
+  <si>
+    <t>C0805C123G4HACAUTO</t>
+  </si>
+  <si>
+    <t>CAP CER 0805 12NF 16V ULTRA STAB</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/kemet/C0805C123G4HACAUTO/7958700</t>
+  </si>
+  <si>
+    <t>C0805C183G4HAC7800</t>
+  </si>
+  <si>
+    <t>CAP CER 0805 18NF 16V ULTRA STAB</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/kemet/C0805C183G4HAC7800/7948299</t>
+  </si>
+  <si>
+    <t>C49, C51, C53, C55, C57, C59, C61, C63, C65, C67, C69, C71, C73, C75, C77, C79</t>
+  </si>
+  <si>
+    <t>TNPW08051K00DEEA</t>
+  </si>
+  <si>
+    <t>RES 1K OHM 0.5% 1/5W 0805</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/vishay-dale/TNPW08051K00DEEA/7354892</t>
+  </si>
+  <si>
+    <t>R49, R50, R51, R52, R53, R54, R55, R56, R57, R58, R59, R60, R61, R62, R63, R64</t>
+  </si>
+  <si>
+    <t>C0805C105J8NACTU</t>
+  </si>
+  <si>
+    <t>CAP CER 1UF 10V X8L 0805</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/kemet/C0805C105J8NACTU/2236746</t>
+  </si>
+  <si>
+    <t>C81, C82, C83, C84, C85, C86, C87, C88, C89, C90, C91, C92, C93, C94, C95, C96, C97, C98, C99, C100, C101, C102, C103, C104, C105, C106, C107, C108, C109, C110, C111, C112</t>
+  </si>
+  <si>
+    <t>REF5025AID</t>
+  </si>
+  <si>
+    <t>IC VREF SERIES 0.1% 8SOIC</t>
+  </si>
+  <si>
+    <t>8-SOIC</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/texas-instruments/REF5025AID/1666361</t>
+  </si>
+  <si>
+    <t>U1, U2, U3, U4, U5, U6, U7, U8, U9, U10, U11, U12, U13, U14, U15, U16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -322,13 +386,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -345,6 +402,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -391,16 +454,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -432,32 +491,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -466,10 +506,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -483,6 +521,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -502,7 +544,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="pcbway-400x400.jpg"/>
+        <xdr:cNvPr id="2" name="图片 1" descr="pcbway-400x400.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -525,6 +573,56 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Control 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53EA4DB5-033F-4725-9AD2-0BBB6E4C8AF5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -812,47 +910,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A2:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="21.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="35.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="41.5546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="35.5546875" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="D2" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="D2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="28.5" customHeight="1">
       <c r="A6" s="3" t="s">
@@ -888,18 +987,18 @@
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="8" t="s">
@@ -914,145 +1013,145 @@
       <c r="A8" s="10">
         <v>2</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="6">
         <v>16</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="E8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>12</v>
+      <c r="F8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="23" t="s">
-        <v>32</v>
+      <c r="I8" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1">
       <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="10">
+      <c r="B9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="6">
         <v>16</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="13" t="s">
+      <c r="D9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>10</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="23" t="s">
-        <v>36</v>
+      <c r="I9" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1">
       <c r="A10" s="10">
         <v>4</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="10">
-        <v>2</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="15">
-        <v>1985027</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="12">
-        <v>1985027</v>
+      <c r="B10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="6">
+        <v>16</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>38</v>
+        <v>9</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1">
       <c r="A11" s="6">
         <v>5</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="10">
+      <c r="B11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="6">
         <v>16</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>10</v>
+      <c r="D11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="23" t="s">
-        <v>41</v>
+      <c r="I11" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1">
       <c r="A12" s="10">
         <v>6</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="10">
+      <c r="B12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="6">
         <v>16</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="13" t="s">
+      <c r="D12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="12">
+        <v>885012207017</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>10</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="23" t="s">
-        <v>44</v>
+      <c r="I12" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1060,28 +1159,28 @@
         <v>7</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="10">
+        <v>68</v>
+      </c>
+      <c r="C13" s="6">
         <v>16</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="13" t="s">
+      <c r="D13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>10</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="17" t="s">
-        <v>47</v>
+      <c r="I13" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1089,28 +1188,28 @@
         <v>8</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="10">
+        <v>52</v>
+      </c>
+      <c r="C14" s="6">
+        <v>4</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>10</v>
+      <c r="E14" s="12">
+        <v>1985027</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1985027</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1118,92 +1217,259 @@
         <v>9</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="10">
+        <v>72</v>
+      </c>
+      <c r="C15" s="6">
         <v>16</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="8" t="s">
+      <c r="D15" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="13" t="s">
-        <v>55</v>
+      <c r="E15" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="17" t="s">
-        <v>56</v>
+      <c r="I15" s="9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="10">
         <v>10</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="10">
-        <v>16</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>59</v>
+      <c r="B16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="6">
+        <v>32</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="9:9">
-      <c r="I17" s="18"/>
-    </row>
-    <row r="18" spans="9:9">
-      <c r="I18" s="19"/>
+      <c r="I16" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="6">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="6">
+        <v>16</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="10">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="6">
+        <v>16</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="6">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="6">
+        <v>16</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="6">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="6">
+        <v>16</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="10">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="6">
+        <v>16</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D2:F4"/>
     <mergeCell ref="A2:B3"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I8" r:id="rId1"/>
-    <hyperlink ref="I9" r:id="rId2"/>
-    <hyperlink ref="I10" r:id="rId3"/>
-    <hyperlink ref="I11" r:id="rId4"/>
-    <hyperlink ref="I12" r:id="rId5"/>
-    <hyperlink ref="I13" r:id="rId6"/>
-    <hyperlink ref="I14" r:id="rId7"/>
+    <hyperlink ref="I11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I17" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="I18" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I9" r:id="rId5" xr:uid="{631CDFB4-ADE1-4D95-904E-13FA73760CA6}"/>
+    <hyperlink ref="I14" r:id="rId6" xr:uid="{0374B2BD-6C65-4462-8D74-D985CA8C9E3E}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId8"/>
-  <drawing r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId7"/>
+  <drawing r:id="rId8"/>
+  <legacyDrawing r:id="rId9"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId10" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId10" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -1211,12 +1477,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
